--- a/to-label/Sort-Other.xlsx
+++ b/to-label/Sort-Other.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerd1\OneDrive\Desktop\new-data\labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerd1\OneDrive\Desktop\new-data\to-label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2CC5C-61DC-469B-AC4E-E90449BE006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9319536-8265-4485-85D1-686BA9EC34C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E526960-7D32-42F3-B551-AE268E3CD651}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Filename</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Heap_Sort.py</t>
-  </si>
-  <si>
-    <t>Sort.java</t>
   </si>
 </sst>
 </file>
@@ -422,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9369559-1390-465A-931D-E76A69DA0441}">
-  <dimension ref="B1:K4"/>
+  <dimension ref="B1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,38 +536,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
